--- a/LTC6811_ESP32_V1p3/LTC6811_ESP32_V1p3_BOM.xlsx
+++ b/LTC6811_ESP32_V1p3/LTC6811_ESP32_V1p3_BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="386">
   <si>
     <t>LTC6811_ESP32_V1p3 BOM</t>
   </si>
@@ -143,13 +143,13 @@
     <t>330pF/100V</t>
   </si>
   <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM188R72A331KA01-01.pdf</t>
+    <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
   </si>
   <si>
     <t>330 pF ±10% 100V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/murata-electronics/GRM188R72A331KA01D/587128</t>
+    <t>https://www.digikey.jp/en/products/detail/kyocera-avx/KGM15AR72A331KT/563306</t>
   </si>
   <si>
     <t>GRM188R72A331KA01D</t>
@@ -197,13 +197,13 @@
     <t>100pF/100V</t>
   </si>
   <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/5411/0603B101K101SD.pdf</t>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GCM188R72A103KA37-01.pdf</t>
   </si>
   <si>
     <t>100 pF ±10% 100V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/nextgen-components/0603B101K101SD/18668484</t>
+    <t>https://www.digikey.jp/en/products/detail/murata-electronics/GCM188R72A103KA37D/1641655</t>
   </si>
   <si>
     <t>0603B101K101SD</t>
@@ -233,9 +233,6 @@
     <t>10nF/100V</t>
   </si>
   <si>
-    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GCM188R72A103KA37-01.pdf</t>
-  </si>
-  <si>
     <t>10000 pF ±10% 100V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
@@ -251,13 +248,13 @@
     <t>1uF/25V</t>
   </si>
   <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/4562/0603B105K250XD.pdf</t>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/3644/CL10B105KA8NNNC_spec.pdf</t>
   </si>
   <si>
     <t>1 uF ±10% 25V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>https://www.digikey.jp/en/products/detail/nextgen-components/0603B105K250XD/14670931</t>
+    <t>https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B105KA8NNNC/3886842</t>
   </si>
   <si>
     <t>0603B105K250XD</t>
@@ -1870,7 +1867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1883,27 +1880,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1913,12 +1904,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1928,16 +1919,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2248,7 +2236,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="青色中色系标题行镶边列表格样式" count="3" xr9:uid="{3EF0A6C9-0AE9-48F5-AE05-7C43D4045C4C}">
+    <tableStyle name="青色中色系标题行镶边列表格样式" count="3" xr9:uid="{4C0D5015-5166-47F2-B1EE-E2C6C910C7C8}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
@@ -2534,8 +2522,8 @@
   <sheetPr/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2556,1837 +2544,1837 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:9">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="10">
         <v>35</v>
       </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:9">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:9">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:9">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:9">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="11" ht="39" customHeight="1" spans="1:9">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="I12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="39" customHeight="1" spans="1:9">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="12">
+      <c r="C13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="39" customHeight="1" spans="1:9">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="39" customHeight="1" spans="1:9">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="39" customHeight="1" spans="1:9">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="13" t="s">
+    <row r="16" ht="39" customHeight="1" spans="1:9">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="39" customHeight="1" spans="1:9">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" ht="39" customHeight="1" spans="1:9">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="39" customHeight="1" spans="1:9">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="39" customHeight="1" spans="1:9">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="39" customHeight="1" spans="1:9">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="39" customHeight="1" spans="1:9">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="B27" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I32" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A33" s="10">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A34" s="10">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="39" customHeight="1" spans="1:9">
+      <c r="A35" s="10">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="I35" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A36" s="10">
+        <v>34</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A37" s="10">
+        <v>35</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="I37" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A38" s="10">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A39" s="10">
+        <v>37</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="I39" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A40" s="10">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="I40" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A41" s="10">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="I41" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="39" customHeight="1" spans="1:9">
-      <c r="A14" s="12">
+    <row r="42" ht="39" customHeight="1" spans="1:9">
+      <c r="A42" s="10">
+        <v>40</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="I42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A43" s="10">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="I43" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A44" s="10">
+        <v>42</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="I44" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A45" s="10">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="I45" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A46" s="10">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="I46" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A47" s="10">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A48" s="10">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I48" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A49" s="10">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="I49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="41" customHeight="1" spans="1:9">
+      <c r="A50" s="10">
+        <v>48</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I50" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="12">
+    </row>
+    <row r="51" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A51" s="10">
+        <v>49</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="I51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="39" customHeight="1" spans="1:9">
+      <c r="A52" s="10">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I52" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="15" ht="39" customHeight="1" spans="1:9">
-      <c r="A15" s="12">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="12">
+    <row r="53" ht="39" customHeight="1" spans="1:9">
+      <c r="A53" s="10">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="I53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="39" customHeight="1" spans="1:9">
+      <c r="A54" s="10">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I54" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" ht="105" customHeight="1" spans="1:9">
+      <c r="A55" s="10">
+        <v>53</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="I55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="105" customHeight="1" spans="1:9">
+      <c r="A56" s="10">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="I56" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="16" ht="39" customHeight="1" spans="1:9">
-      <c r="A16" s="12">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="12">
+    <row r="57" ht="88.5" customHeight="1" spans="1:9">
+      <c r="A57" s="10">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="I57" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="39" customHeight="1" spans="1:9">
-      <c r="A17" s="12">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" ht="39" customHeight="1" spans="1:9">
-      <c r="A18" s="12">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="12">
+    <row r="58" ht="105" customHeight="1" spans="1:9">
+      <c r="A58" s="10">
+        <v>56</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="I58" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="39" customHeight="1" spans="1:9">
-      <c r="A19" s="12">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A20" s="12">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I20" s="12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A21" s="12">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="12">
+    <row r="59" ht="39" customHeight="1" spans="1:9">
+      <c r="A59" s="10">
+        <v>57</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="I59" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="39" customHeight="1" spans="1:9">
-      <c r="A22" s="12">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A23" s="12">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="12">
+    <row r="60" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A60" s="10">
+        <v>58</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="I60" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="39" customHeight="1" spans="1:9">
-      <c r="A24" s="12">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="I24" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A25" s="12">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" s="12">
+    <row r="61" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A61" s="10">
+        <v>59</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I61" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="39" customHeight="1" spans="1:9">
-      <c r="A26" s="12">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="12">
+    <row r="62" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A62" s="10">
+        <v>60</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="I62" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A27" s="12">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27" s="12">
+    <row r="63" ht="39" customHeight="1" spans="1:9">
+      <c r="A63" s="10">
+        <v>61</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="I63" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A28" s="12">
-        <v>26</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A29" s="12">
-        <v>27</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="I29" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A30" s="12">
-        <v>28</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I30" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A31" s="12">
-        <v>29</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I31" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A32" s="12">
-        <v>30</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="I32" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A33" s="12">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="I33" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A34" s="12">
-        <v>32</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="39" customHeight="1" spans="1:9">
-      <c r="A35" s="12">
-        <v>33</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="I35" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A36" s="12">
-        <v>34</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="I36" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A37" s="12">
-        <v>35</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="I37" s="12">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A38" s="12">
-        <v>36</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="I38" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A39" s="12">
-        <v>37</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="I39" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A40" s="12">
-        <v>38</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="I40" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A41" s="12">
-        <v>39</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="I41" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" ht="39" customHeight="1" spans="1:9">
-      <c r="A42" s="12">
-        <v>40</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="I42" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A43" s="12">
-        <v>41</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="I43" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A44" s="12">
-        <v>42</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="I44" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A45" s="12">
-        <v>43</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="I45" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A46" s="12">
-        <v>44</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="I46" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A47" s="12">
-        <v>45</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="I47" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A48" s="12">
-        <v>46</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C48" s="12">
-        <v>0</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="I48" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A49" s="12">
-        <v>47</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="I49" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" ht="41" customHeight="1" spans="1:9">
-      <c r="A50" s="12">
-        <v>48</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="I50" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A51" s="12">
-        <v>49</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I51" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" ht="39" customHeight="1" spans="1:9">
-      <c r="A52" s="12">
-        <v>50</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="I52" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" ht="39" customHeight="1" spans="1:9">
-      <c r="A53" s="12">
-        <v>51</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="I53" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" ht="39" customHeight="1" spans="1:9">
-      <c r="A54" s="12">
-        <v>52</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="I54" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" ht="105" customHeight="1" spans="1:9">
-      <c r="A55" s="12">
-        <v>53</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="I55" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" ht="105" customHeight="1" spans="1:9">
-      <c r="A56" s="12">
-        <v>54</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="I56" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" ht="88.5" customHeight="1" spans="1:9">
-      <c r="A57" s="12">
-        <v>55</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="I57" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" ht="105" customHeight="1" spans="1:9">
-      <c r="A58" s="12">
-        <v>56</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="I58" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" ht="39" customHeight="1" spans="1:9">
-      <c r="A59" s="12">
-        <v>57</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="I59" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A60" s="12">
-        <v>58</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="H60" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="I60" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A61" s="12">
-        <v>59</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="I61" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A62" s="12">
-        <v>60</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="I62" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" ht="39" customHeight="1" spans="1:9">
-      <c r="A63" s="12">
-        <v>61</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="H63" s="16" t="s">
+    <row r="64" ht="55.5" customHeight="1" spans="1:9">
+      <c r="A64" s="15">
+        <v>62</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="I63" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="55.5" customHeight="1" spans="1:9">
-      <c r="A64" s="17">
-        <v>62</v>
-      </c>
-      <c r="B64" s="18" t="s">
+      <c r="C64" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="D64" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="E64" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="F64" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="G64" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="G64" s="20" t="s">
+      <c r="H64" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="H64" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="I64" s="17">
+      <c r="I64" s="15">
         <v>1</v>
       </c>
     </row>
@@ -4401,9 +4389,73 @@
     <hyperlink ref="G4" r:id="rId4" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL21A106KOQNNNE/3886754" tooltip="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL21A106KOQNNNE/3886754"/>
     <hyperlink ref="E3" r:id="rId5" display="https://www.puiaudio.com/media/SpecSheet/AI-1027-TWT-5V-2-R.pdf"/>
     <hyperlink ref="E4" r:id="rId6" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/609/CL21A106KOQNNNE_Spec.pdf"/>
-    <hyperlink ref="G7" r:id="rId7" display="https://www.digikey.jp/en/products/detail/murata-electronics/GRM188R72A331KA01D/587128"/>
-    <hyperlink ref="G8" r:id="rId8" display="https://www.digikey.jp/en/products/detail/kemet/C0603C222K4RECAUTO/8646528"/>
-    <hyperlink ref="G23" r:id="rId9" display="https://www.digikey.jp/en/products/detail/te-connectivity-amp-connectors/2013499-1/4021843?s=N4IgTCBcDa4AwEYDMAWAnGgtAkBdAvkA"/>
+    <hyperlink ref="G8" r:id="rId7" display="https://www.digikey.jp/en/products/detail/kemet/C0603C222K4RECAUTO/8646528"/>
+    <hyperlink ref="G23" r:id="rId8" display="https://www.digikey.jp/en/products/detail/te-connectivity-amp-connectors/2013499-1/4021843?s=N4IgTCBcDa4AwEYDMAWAnGgtAkBdAvkA" tooltip="https://www.digikey.jp/en/products/detail/te-connectivity-amp-connectors/2013499-1/4021843?s=N4IgTCBcDa4AwEYDMAWAnGgtAkBdAvkA"/>
+    <hyperlink ref="G7" r:id="rId9" display="https://www.digikey.jp/en/products/detail/kyocera-avx/KGM15AR72A331KT/563306"/>
+    <hyperlink ref="G9" r:id="rId10" display="https://www.digikey.jp/en/products/detail/murata-electronics/GCM1885C1H221JA16D/1765211"/>
+    <hyperlink ref="G10" r:id="rId11" display="https://www.digikey.jp/en/products/detail/murata-electronics/GCM188R72A103KA37D/1641655"/>
+    <hyperlink ref="E10" r:id="rId12" display="https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GCM188R72A103KA37-01.pdf"/>
+    <hyperlink ref="E7" r:id="rId13" display="https://datasheets.kyocera-avx.com/KGM_X7R.pdf" tooltip="https://datasheets.kyocera-avx.com/KGM_X7R.pdf"/>
+    <hyperlink ref="G11" r:id="rId14" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10A475KO8NNNC/3887442"/>
+    <hyperlink ref="G12" r:id="rId15" display="https://www.digikey.jp/en/products/detail/murata-electronics/GCM188R72A103KA37D/1641655?s=N4IgTCBcDaIOIGECyBGAHGgSgdjAQRQAYBmAaT2OwBEQBdAXyA"/>
+    <hyperlink ref="G14" r:id="rId16" display="https://www.digikey.jp/en/products/detail/liteon/LTST-C190KRKT/386817"/>
+    <hyperlink ref="G13" r:id="rId17" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B105KA8NNNC/3886842"/>
+    <hyperlink ref="E13" r:id="rId18" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/3644/CL10B105KA8NNNC_spec.pdf"/>
+    <hyperlink ref="E12" r:id="rId12" display="https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GCM188R72A103KA37-01.pdf"/>
+    <hyperlink ref="E11" r:id="rId19" display="https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2328/CL10A475KO8NNNC_Spec.pdf"/>
+    <hyperlink ref="E9" r:id="rId20" display="https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GCM1885C1H221JA16-01.pdf"/>
+    <hyperlink ref="E8" r:id="rId21" display="https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C0603C222K4RECAUTO"/>
+    <hyperlink ref="E6" r:id="rId22" display="https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GRM188R61E225KA12-01.pdf"/>
+    <hyperlink ref="E5" r:id="rId23" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B104KC8NNNC/5961291?s=N4IgTCBcDaIMIBkCMAGAQqgLAaTgDgDki4AdEkAXQF8g"/>
+    <hyperlink ref="G15" r:id="rId24" display="https://www.digikey.jp/en/products/detail/micro-commercial-co/MBR0520-TP/717250"/>
+    <hyperlink ref="G16" r:id="rId25" display="https://www.digikey.jp/en/products/detail/infineon-technologies/ESD24VS2UE6327HTSA1/1785650"/>
+    <hyperlink ref="G17" r:id="rId26" display="https://www.digikey.jp/en/products/detail/diodes-incorporated/1N4148W-7-F/814371"/>
+    <hyperlink ref="G18" r:id="rId27" display="https://www.digikey.jp/en/products/detail/nexperia-usa-inc/BZT52H-C62-115/1162867"/>
+    <hyperlink ref="G19" r:id="rId28" display="https://www.digikey.jp/en/products/detail/nexperia-usa-inc/PDZ7-5BZ/7495708"/>
+    <hyperlink ref="G20" r:id="rId29" display="https://www.digikey.jp/en/products/detail/tdk-corporation/MPZ2012S102ATD25/5040327?s=N4IgTCBcDaILIAUBaYAMBGMBldqwEEAVAETAFYQBdAXyA"/>
+    <hyperlink ref="G21" r:id="rId30" display="https://www.digikey.jp/en/products/detail/murata-electronics/BLM18PG330SN1D/1948325?s=N4IgTCBcDaIEIBkCyBGAHABQOIGYcAYBlAORQBEQBdAXyA"/>
+    <hyperlink ref="G22" r:id="rId31" display="https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B2P-VH/926547"/>
+    <hyperlink ref="G24" r:id="rId32" display="https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B7B-XH-A/1651050"/>
+    <hyperlink ref="G25" r:id="rId33" display="https://www.digikey.jp/en/products/detail/bourns-inc/SRP5030CC-3R3M/21263799?s=N4IgTCBcDaIMoCUAKBWADAZjQYWwWgwQwFkQBdAXyA"/>
+    <hyperlink ref="G26" r:id="rId34" display="https://www.digikey.jp/en/products/detail/anbon-semiconductor-int-l-limited/BSS138/16708474"/>
+    <hyperlink ref="G27" r:id="rId35" display="https://www.digikey.jp/en/products/detail/onsemi/NSV1C201MZ4T1G/4848737?s=N4IgTCBcDaIHIGUBqBGAwmADCgsgLQBYQBdAXyA"/>
+    <hyperlink ref="G28" r:id="rId36" display="https://www.digikey.jp/en/products/detail/taiwan-semiconductor-corporation/TSM2323CX-RFG/7360264?s=N4IgTCBcDaICoGUCyYDMaDCANABAJQDEBxHEAXQF8g"/>
+    <hyperlink ref="G29" r:id="rId37" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-07470RL/726791?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7ACz5JwAyIAugL5A"/>
+    <hyperlink ref="G30" r:id="rId38" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071K5L/726689?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwDSArADIgC6AvkA"/>
+    <hyperlink ref="G31" r:id="rId39" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-074K7L/726785?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7ACwDS%2BAMiALoC%2BQA"/>
+    <hyperlink ref="G32" r:id="rId40" display="https://www.digikey.jp/en/products/detail/panasonic-electronic-components/ERJ-PB6B4703V/6213681?s=N4IgTCBcDaIKICUBSAFAQgNjQFgOwAYBmANRAF0BfIA"/>
+    <hyperlink ref="G33" r:id="rId41" display="https://www.digikey.jp/en/products/detail/rohm-semiconductor/PSR500HTQFB0L10/17140191?s=N4IgTCBcDaIAoGUBKBWADGgEgFQIoDEAhNAGQEY0QBdAXyA"/>
+    <hyperlink ref="G34" r:id="rId42" display="https://www.digikey.jp/en/products/detail/panasonic-electronic-components/ERJ-PB6B1001V/6213377?s=N4IgTCBcDaIKICUBSBaACgIQGwYIwAZ9cA1EAXQF8g"/>
+    <hyperlink ref="G35" r:id="rId43" display="https://www.digikey.jp/en/products/detail/vishay-dale/CRCW06031K00FKEA/1179809"/>
+    <hyperlink ref="G36" r:id="rId44" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-0710RL/726699?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIxJwAyIAugL5A"/>
+    <hyperlink ref="G37" r:id="rId45" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07100RL/726888?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7AIxJJwAyIAugL5A"/>
+    <hyperlink ref="G38" r:id="rId46" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-075K6L/726799?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AKwDSKAMiALoC%2BQA"/>
+    <hyperlink ref="G39" r:id="rId47" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-073K3L/727126?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OgNboAyIAugL5A"/>
+    <hyperlink ref="G40" r:id="rId48" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-0733KL/727159?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OugNIAyIAugL5A"/>
+    <hyperlink ref="G41" r:id="rId49" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-07100KL/726698?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIxJIDSAMiALoC%2BQA"/>
+    <hyperlink ref="G42" r:id="rId50" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603FT22K1/1760764"/>
+    <hyperlink ref="G43" r:id="rId51" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603FT10K0/1761235?s=N4IgTCBcDaIEoFkDCAxADANjQZhQFQEY0BpNEAXQF8g"/>
+    <hyperlink ref="G44" r:id="rId52" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07806RL/727397?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7ABypwAyIAugL5A"/>
+    <hyperlink ref="G45" r:id="rId53" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-0751RL/726803?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AKwCMcAMiALoC%2BQA"/>
+    <hyperlink ref="G46" r:id="rId54" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071K2L/726683?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwDSYAMiALoC%2BQA"/>
+    <hyperlink ref="G47" r:id="rId55" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-072KL/727009?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7GANIAyIAugL5A"/>
+    <hyperlink ref="G48" r:id="rId56" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-070RL/726675?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7EnADIgC6AvkA" tooltip="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-070RL/726675?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7EnADIgC6AvkA"/>
+    <hyperlink ref="G49" r:id="rId57" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071ML/726678?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwCyAMiALoC%2BQA"/>
+    <hyperlink ref="G50" r:id="rId58" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF2512JT36R0/1716346"/>
+    <hyperlink ref="G51" r:id="rId59" display="https://www.digikey.jp/en/products/detail/epcos-tdk-electronics/B57355V5104F360/7347813?s=N4IgTCBcDaIEIFYDsBmBCBqCCMAGALAGIoBsuIAugL5A"/>
+    <hyperlink ref="G52" r:id="rId60" display="https://www.digikey.jp/en/products/detail/cantherm/MF52C1104F4150/1840605"/>
+    <hyperlink ref="G53" r:id="rId61" display="https://www.digikey.jp/en/products/detail/w%C3%BCrth-elektronik/760390015/3831267"/>
+    <hyperlink ref="G54" r:id="rId62" display="https://www.digikey.jp/en/products/detail/pulse-electronics/HM2108NL/7914611"/>
+    <hyperlink ref="G55" r:id="rId63" display="https://www.digikey.jp/en/products/detail/texas-instruments/TPS76350DBVR/382163"/>
+    <hyperlink ref="G56" r:id="rId64" display="https://www.digikey.jp/en/products/detail/texas-instruments/AMC1301DWV/6131500"/>
+    <hyperlink ref="G57" r:id="rId65" display="https://www.digikey.jp/en/products/detail/texas-instruments/SN6501DBVR/3431175?s=N4IgTCBcDaIMoDkBsBWADARgCICEBqASiALoC%2BQA"/>
+    <hyperlink ref="G58" r:id="rId66" display="https://www.digikey.jp/en/products/detail/texas-instruments/OPA2197IDR/6175210?s=N4IgTCBcDaIPIAUCCYCMBOA7ASQCICUQBdAXyA"/>
+    <hyperlink ref="G59" r:id="rId67" display="https://www.digikey.jp/en/products/detail/renesas-electronics-america-inc/ISL28022FUZ-T7A/4765786"/>
+    <hyperlink ref="G60" r:id="rId68" display="https://www.digikey.jp/en/products/detail/texas-instruments/LMR51420XDDCR/16705125?s=N4IgTCBcDaIDIFkBKBWAjAFjABgBoBF8BhJEAXQF8g"/>
+    <hyperlink ref="G61" r:id="rId69" display="https://www.digikey.jp/en/products/detail/espressif-systems/ESP32-DEVKITC-32E/12091810"/>
+    <hyperlink ref="G62" r:id="rId70" display="https://www.digikey.jp/en/products/detail/analog-devices-inc/LTC6820IMS-PBF/3838555?s=N4IgTCBcDaIDIBUDCA2AHGADASQLIGUBiABQCEAxAAhAF0BfIA"/>
+    <hyperlink ref="G63" r:id="rId71" display="https://www.digikey.jp/en/products/detail/silicon-labs/CP2104-F03-GM/2486177"/>
+    <hyperlink ref="G64" r:id="rId72" display="https://www.digikey.jp/en/products/detail/analog-devices-inc/LTC6811HG-1-3ZZPBF/9739208?s=N4IgTCBcDaIDIBUDCA2AHARgwCQOIFoMBiAZgC0yAFAIQDEQBdAXyA"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/LTC6811_ESP32_V1p3/LTC6811_ESP32_V1p3_BOM.xlsx
+++ b/LTC6811_ESP32_V1p3/LTC6811_ESP32_V1p3_BOM.xlsx
@@ -695,7 +695,7 @@
     <t>RC0603JR-0710RL</t>
   </si>
   <si>
-    <t>R20-R23, R53, R54, R61, R69, R72, R75, R78, R81, R84, R87, R90, R93, R96, R99, R102</t>
+    <t>R20-R23, R53, R54,R58， R61, R69, R72, R75, R78, R81, R84, R87, R90, R93, R96, R99, R102</t>
   </si>
   <si>
     <t>100R</t>
@@ -758,7 +758,7 @@
     <t>RC0603FR-0733KL</t>
   </si>
   <si>
-    <t>R37, R58, R62-R65, R67</t>
+    <t>R37,  R62-R65, R67</t>
   </si>
   <si>
     <t>100K</t>
@@ -2236,7 +2236,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="青色中色系标题行镶边列表格样式" count="3" xr9:uid="{4C0D5015-5166-47F2-B1EE-E2C6C910C7C8}">
+    <tableStyle name="青色中色系标题行镶边列表格样式" count="3" xr9:uid="{04A9EF86-CDF9-4B4A-AF26-5F392D9275B8}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
@@ -2522,8 +2522,8 @@
   <sheetPr/>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3592,7 +3592,7 @@
         <v>226</v>
       </c>
       <c r="I37" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="55.5" customHeight="1" spans="1:9">
@@ -3708,7 +3708,7 @@
         <v>247</v>
       </c>
       <c r="I41" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="39" customHeight="1" spans="1:9">
